--- a/module04/TaiLieuHocModule4/Câu hỏi audit module4.xlsx
+++ b/module04/TaiLieuHocModule4/Câu hỏi audit module4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A0920I1_Hoang_Cong_Tu\module04\TaiLieuHocModule4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,12 +290,12 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,6 +306,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -349,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,537 +603,538 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="113.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="4:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D11" s="2">
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D15" s="2">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D16" s="2">
         <v>12</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D17" s="2">
         <v>13</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D18" s="2">
         <v>14</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D19" s="2">
         <v>15</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D20" s="2">
         <v>16</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D21" s="2">
         <v>17</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D22" s="2">
         <v>18</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D23" s="2">
         <v>19</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D24" s="2">
         <v>20</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D25" s="2">
         <v>21</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D26" s="2">
         <v>22</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D27" s="2">
         <v>23</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D28" s="2">
         <v>24</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D29" s="2">
         <v>25</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D30" s="2">
         <v>26</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D31" s="2">
         <v>27</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D32" s="2">
         <v>28</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D33" s="2">
         <v>29</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D34" s="2">
         <v>30</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D35" s="2">
         <v>31</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D36" s="2">
         <v>32</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D37" s="2">
         <v>33</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D38" s="2">
         <v>34</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D39" s="2">
         <v>35</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D40" s="2">
         <v>36</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D41" s="2">
         <v>37</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D42" s="2">
         <v>38</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D43" s="2">
         <v>39</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D44" s="2">
         <v>40</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D45" s="2">
         <v>41</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D46" s="2">
         <v>42</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D47" s="2">
         <v>43</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D48" s="2">
         <v>44</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D49" s="2">
         <v>45</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D50" s="2">
         <v>46</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D51" s="2">
         <v>47</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D52" s="2">
         <v>48</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D53" s="2">
         <v>49</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D54" s="2">
         <v>50</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D55" s="2">
         <v>51</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D56" s="2">
         <v>52</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D57" s="2">
         <v>53</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D58" s="2">
         <v>54</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D59" s="2">
         <v>55</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D60" s="2">
         <v>56</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D61" s="2">
         <v>57</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D62" s="2">
         <v>58</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D63" s="2">
         <v>59</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D64" s="2">
         <v>60</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D65" s="2">
         <v>61</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D66" s="2">
         <v>62</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D67" s="2">
         <v>63</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D68" s="2">
         <v>64</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1135,7 +1144,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1147,7 +1156,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
